--- a/media/excel_templates/evaluations.xlsx
+++ b/media/excel_templates/evaluations.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="14340" windowHeight="12450" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="evaluation1" sheetId="1" r:id="rId1"/>
+    <sheet name="evaluation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>annee :</t>
   </si>
@@ -23,19 +23,10 @@
     <t>semestre :</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t xml:space="preserve">matière : </t>
   </si>
   <si>
-    <t>Vocabulaire de l’ordinateur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Est une evaluation : </t>
-  </si>
-  <si>
-    <t>oui</t>
   </si>
   <si>
     <t>Oui ou Non</t>
@@ -64,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -105,8 +96,39 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,17 +140,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,52 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -195,6 +170,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -203,7 +201,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,39 +221,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +267,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,31 +423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,133 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,15 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -535,6 +517,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,150 +573,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,7 +1130,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="13.5"/>
@@ -1155,9 +1146,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>2023</v>
-      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1177,9 +1166,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1197,31 +1184,27 @@
     </row>
     <row r="3" ht="21.75" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" customFormat="1" ht="21.75" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="21.75" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="11"/>
@@ -1230,7 +1213,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="21.75" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="11"/>
@@ -1239,7 +1222,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="21.75" spans="1:5">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="11"/>
@@ -1255,13 +1238,13 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="21" spans="1:5">
       <c r="A9" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="9"/>
